--- a/CashFlow/KEYS_cashflow.xlsx
+++ b/CashFlow/KEYS_cashflow.xlsx
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3051000000.0</v>
+        <v>723000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3028000000.0</v>
+        <v>-73000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2257000000.0</v>
+        <v>-105000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1454000000.0</v>
+        <v>-102000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>671000000.0</v>
+        <v>-102000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-92000000.0</v>
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-3000000.0</v>
+        <v>827000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-33000000.0</v>
+        <v>823000000.0</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
